--- a/data/euro-ccp/euro-ccp-Q3-2016.xlsx
+++ b/data/euro-ccp/euro-ccp-Q3-2016.xlsx
@@ -612,10 +612,10 @@
         <v>14954318</v>
       </c>
       <c r="R2" t="n">
-        <v>131800590</v>
+        <v>133556420</v>
       </c>
       <c r="S2" t="n">
-        <v>673856397</v>
+        <v>675612227</v>
       </c>
       <c r="T2" t="n">
         <v>1067298594</v>
